--- a/public/download/sample/Users.xlsx
+++ b/public/download/sample/Users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="165">
   <si>
     <t>DD Code</t>
   </si>
@@ -46,7 +46,7 @@
     <t>faijul</t>
   </si>
   <si>
-    <t>01935593311</t>
+    <t>01900000001</t>
   </si>
   <si>
     <t>faijul@gmail.com</t>
@@ -61,7 +61,7 @@
     <t>forhad</t>
   </si>
   <si>
-    <t>01935591837</t>
+    <t>01900000002</t>
   </si>
   <si>
     <t>forhad@gmail.com</t>
@@ -73,7 +73,7 @@
     <t>joynal</t>
   </si>
   <si>
-    <t>01935591912</t>
+    <t>01900000003</t>
   </si>
   <si>
     <t>joynal@gmail.com</t>
@@ -85,7 +85,7 @@
     <t>md. golam mostufa</t>
   </si>
   <si>
-    <t>01935591856</t>
+    <t>01900000004</t>
   </si>
   <si>
     <t>md.golammostufa@gmail.com</t>
@@ -97,7 +97,7 @@
     <t>nazmul ahmed</t>
   </si>
   <si>
-    <t>01935592000</t>
+    <t>01900000005</t>
   </si>
   <si>
     <t>nazmulahmed@gmail.com</t>
@@ -109,7 +109,7 @@
     <t>porosh</t>
   </si>
   <si>
-    <t>01935591796</t>
+    <t>01900000006</t>
   </si>
   <si>
     <t>porosh@gmail.com</t>
@@ -121,7 +121,7 @@
     <t>md. anik hasan</t>
   </si>
   <si>
-    <t>01935591917</t>
+    <t>01900000007</t>
   </si>
   <si>
     <t>md.anikhasan@gmail.com</t>
@@ -133,7 +133,7 @@
     <t>md. siyam hossain</t>
   </si>
   <si>
-    <t>01935591855</t>
+    <t>01900000008</t>
   </si>
   <si>
     <t>md.siyamhossain@gmail.com</t>
@@ -145,7 +145,7 @@
     <t>habibur rahman</t>
   </si>
   <si>
-    <t>01935592053</t>
+    <t>01900000009</t>
   </si>
   <si>
     <t>habiburrahman@gmail.com</t>
@@ -157,7 +157,7 @@
     <t>mizan</t>
   </si>
   <si>
-    <t>01935591915</t>
+    <t>01900000010</t>
   </si>
   <si>
     <t>mizan@gmail.com</t>
@@ -172,7 +172,7 @@
     <t>rakib mia</t>
   </si>
   <si>
-    <t>01935593313</t>
+    <t>01900000011</t>
   </si>
   <si>
     <t>rakibmia@gmail.com</t>
@@ -184,7 +184,7 @@
     <t>abdullah al alam</t>
   </si>
   <si>
-    <t>01935591816</t>
+    <t>01900000012</t>
   </si>
   <si>
     <t>abdullahalalam@gmail.com</t>
@@ -196,7 +196,7 @@
     <t>shakil</t>
   </si>
   <si>
-    <t>01935591916</t>
+    <t>01900000013</t>
   </si>
   <si>
     <t>shakil@gmail.com</t>
@@ -208,7 +208,7 @@
     <t>md. jubayed mia</t>
   </si>
   <si>
-    <t>01935592484</t>
+    <t>01900000014</t>
   </si>
   <si>
     <t>md.jubayedmia@gmail.com</t>
@@ -220,7 +220,7 @@
     <t>md. monir hossen</t>
   </si>
   <si>
-    <t>01935591836</t>
+    <t>01900000015</t>
   </si>
   <si>
     <t>md.monirhossen@gmail.com</t>
@@ -232,7 +232,7 @@
     <t>md. shahin mia</t>
   </si>
   <si>
-    <t>01935591828</t>
+    <t>01900000016</t>
   </si>
   <si>
     <t>md.shahinmia@gmail.com</t>
@@ -244,7 +244,7 @@
     <t>ashiqur rahman</t>
   </si>
   <si>
-    <t>01935592119</t>
+    <t>01900000017</t>
   </si>
   <si>
     <t>ashiqurrahman@gmail.com</t>
@@ -259,7 +259,7 @@
     <t>safiqul islam</t>
   </si>
   <si>
-    <t>01935593312</t>
+    <t>01900000018</t>
   </si>
   <si>
     <t>safiqulislam@gmail.com</t>
@@ -271,7 +271,7 @@
     <t>saddam</t>
   </si>
   <si>
-    <t>01935591829</t>
+    <t>01900000019</t>
   </si>
   <si>
     <t>saddam@gmail.com</t>
@@ -283,7 +283,7 @@
     <t>md. bayazid</t>
   </si>
   <si>
-    <t>01935591914</t>
+    <t>01900000020</t>
   </si>
   <si>
     <t>md.bayazid@gmail.com</t>
@@ -295,7 +295,7 @@
     <t>saikoutz zaman raja</t>
   </si>
   <si>
-    <t>01935591815</t>
+    <t>01900000021</t>
   </si>
   <si>
     <t>saikoutzzamanraja@gmail.com</t>
@@ -307,7 +307,7 @@
     <t>md. thouhul amin</t>
   </si>
   <si>
-    <t>01935591797</t>
+    <t>01900000022</t>
   </si>
   <si>
     <t>md.thouhulamin@gmail.com</t>
@@ -319,7 +319,7 @@
     <t>monayam khan</t>
   </si>
   <si>
-    <t>01935591918</t>
+    <t>01900000023</t>
   </si>
   <si>
     <t>monayamkhan@gmail.com</t>
@@ -331,7 +331,7 @@
     <t>mohammd abul hossain</t>
   </si>
   <si>
-    <t>01935591999</t>
+    <t>01900000024</t>
   </si>
   <si>
     <t>mohammdabulhossain@gmail.com</t>
@@ -343,7 +343,7 @@
     <t>hridoy mia</t>
   </si>
   <si>
-    <t>01935591913</t>
+    <t>01900000025</t>
   </si>
   <si>
     <t>hridoymia@gmail.com</t>
@@ -355,10 +355,160 @@
     <t>md. hridoy mia</t>
   </si>
   <si>
-    <t>01935592054</t>
+    <t>01900000026</t>
   </si>
   <si>
     <t>md.hridoymia@gmail.com</t>
+  </si>
+  <si>
+    <t>Titu Miah</t>
+  </si>
+  <si>
+    <t>titumiah</t>
+  </si>
+  <si>
+    <t>01900000027</t>
+  </si>
+  <si>
+    <t>titumiah@gmail.com</t>
+  </si>
+  <si>
+    <t>supervisor</t>
+  </si>
+  <si>
+    <t>Ridoy Miah</t>
+  </si>
+  <si>
+    <t>ridoymiah</t>
+  </si>
+  <si>
+    <t>01900000028</t>
+  </si>
+  <si>
+    <t>ridoymiah@gmail.com</t>
+  </si>
+  <si>
+    <t>Ruhul Amin</t>
+  </si>
+  <si>
+    <t>ruhulamin</t>
+  </si>
+  <si>
+    <t>01900000029</t>
+  </si>
+  <si>
+    <t>ruhulamin@gmail.com</t>
+  </si>
+  <si>
+    <t>Supervisor One</t>
+  </si>
+  <si>
+    <t>supervisor01</t>
+  </si>
+  <si>
+    <t>01900000030</t>
+  </si>
+  <si>
+    <t>supervisor01@gmail.com</t>
+  </si>
+  <si>
+    <t>Supervisor Two</t>
+  </si>
+  <si>
+    <t>supervisor02</t>
+  </si>
+  <si>
+    <t>01900000031</t>
+  </si>
+  <si>
+    <t>supervisor02@gmail.com</t>
+  </si>
+  <si>
+    <t>Supervisor Three</t>
+  </si>
+  <si>
+    <t>supervisor03</t>
+  </si>
+  <si>
+    <t>01900000032</t>
+  </si>
+  <si>
+    <t>supervisor03@gmail.com</t>
+  </si>
+  <si>
+    <t>BP 01</t>
+  </si>
+  <si>
+    <t>bp01</t>
+  </si>
+  <si>
+    <t>01900000033</t>
+  </si>
+  <si>
+    <t>bp01@gmail.com</t>
+  </si>
+  <si>
+    <t>bp</t>
+  </si>
+  <si>
+    <t>BP 02</t>
+  </si>
+  <si>
+    <t>bp02</t>
+  </si>
+  <si>
+    <t>01900000034</t>
+  </si>
+  <si>
+    <t>bp02@gmail.com</t>
+  </si>
+  <si>
+    <t>BP 03</t>
+  </si>
+  <si>
+    <t>bp03</t>
+  </si>
+  <si>
+    <t>01900000035</t>
+  </si>
+  <si>
+    <t>bp03@gmail.com</t>
+  </si>
+  <si>
+    <t>BP 04</t>
+  </si>
+  <si>
+    <t>bp04</t>
+  </si>
+  <si>
+    <t>01900000036</t>
+  </si>
+  <si>
+    <t>bp04@gmail.com</t>
+  </si>
+  <si>
+    <t>BP 05</t>
+  </si>
+  <si>
+    <t>bp05</t>
+  </si>
+  <si>
+    <t>01900000037</t>
+  </si>
+  <si>
+    <t>bp05@gmail.com</t>
+  </si>
+  <si>
+    <t>BP 06</t>
+  </si>
+  <si>
+    <t>bp06</t>
+  </si>
+  <si>
+    <t>01900000038</t>
+  </si>
+  <si>
+    <t>bp06@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -366,10 +516,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -396,6 +546,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -412,52 +599,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,36 +617,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,6 +631,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -517,9 +654,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,6 +674,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -541,25 +691,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,157 +847,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,23 +888,41 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,11 +942,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -808,44 +982,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -858,127 +1008,127 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -993,6 +1143,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1314,10 +1467,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F31" sqref="A1:G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1327,7 +1480,7 @@
     <col min="3" max="3" width="24.1428571428571" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.8571428571429" style="2" customWidth="1"/>
     <col min="5" max="5" width="35.5714285714286" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5.57142857142857" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11" style="2" customWidth="1"/>
     <col min="7" max="7" width="10" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9.14285714285714" style="2"/>
   </cols>
@@ -1365,7 +1518,7 @@
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -1388,7 +1541,7 @@
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1411,7 +1564,7 @@
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -1434,7 +1587,7 @@
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -1457,7 +1610,7 @@
       <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -1480,7 +1633,7 @@
       <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -1503,7 +1656,7 @@
       <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -1526,7 +1679,7 @@
       <c r="C9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -1549,7 +1702,7 @@
       <c r="C10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -1572,7 +1725,7 @@
       <c r="C11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -1595,7 +1748,7 @@
       <c r="C12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -1618,7 +1771,7 @@
       <c r="C13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>56</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -1641,7 +1794,7 @@
       <c r="C14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -1664,7 +1817,7 @@
       <c r="C15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="4" t="s">
         <v>64</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -1687,7 +1840,7 @@
       <c r="C16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="4" t="s">
         <v>68</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -1710,7 +1863,7 @@
       <c r="C17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -1733,7 +1886,7 @@
       <c r="C18" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -1756,7 +1909,7 @@
       <c r="C19" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="4" t="s">
         <v>81</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -1779,7 +1932,7 @@
       <c r="C20" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="4" t="s">
         <v>85</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -1802,7 +1955,7 @@
       <c r="C21" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -1825,7 +1978,7 @@
       <c r="C22" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="4" t="s">
         <v>93</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -1848,7 +2001,7 @@
       <c r="C23" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="4" t="s">
         <v>97</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -1871,7 +2024,7 @@
       <c r="C24" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="4" t="s">
         <v>101</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -1894,7 +2047,7 @@
       <c r="C25" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="4" t="s">
         <v>105</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -1917,7 +2070,7 @@
       <c r="C26" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="4" t="s">
         <v>109</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -1940,7 +2093,7 @@
       <c r="C27" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="4" t="s">
         <v>113</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -1950,6 +2103,282 @@
         <v>12</v>
       </c>
       <c r="G27" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G29" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G32" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G33" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G34" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G35" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G36" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G37" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G38" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G39" s="2">
         <v>32133213</v>
       </c>
     </row>
@@ -1974,6 +2403,18 @@
     <hyperlink ref="E25" r:id="rId17" display="mohammdabulhossain@gmail.com"/>
     <hyperlink ref="E26" r:id="rId18" display="hridoymia@gmail.com"/>
     <hyperlink ref="E27" r:id="rId19" display="md.hridoymia@gmail.com"/>
+    <hyperlink ref="E28" r:id="rId20" display="titumiah@gmail.com"/>
+    <hyperlink ref="E29" r:id="rId21" display="ridoymiah@gmail.com"/>
+    <hyperlink ref="E30" r:id="rId22" display="ruhulamin@gmail.com"/>
+    <hyperlink ref="E34" r:id="rId23" display="bp01@gmail.com"/>
+    <hyperlink ref="E35" r:id="rId23" display="bp02@gmail.com"/>
+    <hyperlink ref="E36" r:id="rId23" display="bp03@gmail.com"/>
+    <hyperlink ref="E37" r:id="rId23" display="bp04@gmail.com"/>
+    <hyperlink ref="E38" r:id="rId23" display="bp05@gmail.com"/>
+    <hyperlink ref="E39" r:id="rId23" display="bp06@gmail.com"/>
+    <hyperlink ref="E31" r:id="rId24" display="supervisor01@gmail.com"/>
+    <hyperlink ref="E32" r:id="rId24" display="supervisor02@gmail.com"/>
+    <hyperlink ref="E33" r:id="rId24" display="supervisor03@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/public/download/sample/Users.xlsx
+++ b/public/download/sample/Users.xlsx
@@ -1,20 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Installed Software\xampp\htdocs\enstudio\public\download\sample\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AC3D28-2971-4CE5-B60F-1AE5F2D2D18C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="7635"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="176">
   <si>
     <t>DD Code</t>
   </si>
@@ -509,19 +523,46 @@
   </si>
   <si>
     <t>bp06@gmail.com</t>
+  </si>
+  <si>
+    <t>Khasruzzaman</t>
+  </si>
+  <si>
+    <t>Rasel Mia</t>
+  </si>
+  <si>
+    <t>Osman Goni</t>
+  </si>
+  <si>
+    <t>khasru</t>
+  </si>
+  <si>
+    <t>rasel</t>
+  </si>
+  <si>
+    <t>osman</t>
+  </si>
+  <si>
+    <t>01918537111</t>
+  </si>
+  <si>
+    <t>01918580928</t>
+  </si>
+  <si>
+    <t>01976466262</t>
+  </si>
+  <si>
+    <t>manager01@gmail.com</t>
+  </si>
+  <si>
+    <t>manager</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,341 +583,18 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -884,255 +602,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1142,68 +621,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1461,31 +897,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F31" sqref="A1:G39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.2857142857143" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.5714285714286" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.1428571428571" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.8571428571429" style="2" customWidth="1"/>
-    <col min="5" max="5" width="35.5714285714286" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="35.5703125" style="2" customWidth="1"/>
     <col min="6" max="6" width="11" style="2" customWidth="1"/>
     <col min="7" max="7" width="10" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.14285714285714" style="2"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2382,41 +1818,111 @@
         <v>32133213</v>
       </c>
     </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G40" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G41" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G42" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" display="md.golammostufa@gmail.com"/>
-    <hyperlink ref="E6" r:id="rId2" display="nazmulahmed@gmail.com"/>
-    <hyperlink ref="E8" r:id="rId3" display="md.anikhasan@gmail.com"/>
-    <hyperlink ref="E9" r:id="rId4" display="md.siyamhossain@gmail.com"/>
-    <hyperlink ref="E10" r:id="rId5" display="habiburrahman@gmail.com"/>
-    <hyperlink ref="E12" r:id="rId6" display="rakibmia@gmail.com"/>
-    <hyperlink ref="E13" r:id="rId7" display="abdullahalalam@gmail.com"/>
-    <hyperlink ref="E15" r:id="rId8" display="md.jubayedmia@gmail.com"/>
-    <hyperlink ref="E16" r:id="rId9" display="md.monirhossen@gmail.com"/>
-    <hyperlink ref="E17" r:id="rId10" display="md.shahinmia@gmail.com"/>
-    <hyperlink ref="E18" r:id="rId11" display="ashiqurrahman@gmail.com"/>
-    <hyperlink ref="E19" r:id="rId12" display="safiqulislam@gmail.com"/>
-    <hyperlink ref="E21" r:id="rId13" display="md.bayazid@gmail.com"/>
-    <hyperlink ref="E22" r:id="rId14" display="saikoutzzamanraja@gmail.com"/>
-    <hyperlink ref="E23" r:id="rId15" display="md.thouhulamin@gmail.com"/>
-    <hyperlink ref="E24" r:id="rId16" display="monayamkhan@gmail.com"/>
-    <hyperlink ref="E25" r:id="rId17" display="mohammdabulhossain@gmail.com"/>
-    <hyperlink ref="E26" r:id="rId18" display="hridoymia@gmail.com"/>
-    <hyperlink ref="E27" r:id="rId19" display="md.hridoymia@gmail.com"/>
-    <hyperlink ref="E28" r:id="rId20" display="titumiah@gmail.com"/>
-    <hyperlink ref="E29" r:id="rId21" display="ridoymiah@gmail.com"/>
-    <hyperlink ref="E30" r:id="rId22" display="ruhulamin@gmail.com"/>
-    <hyperlink ref="E34" r:id="rId23" display="bp01@gmail.com"/>
-    <hyperlink ref="E35" r:id="rId23" display="bp02@gmail.com"/>
-    <hyperlink ref="E36" r:id="rId23" display="bp03@gmail.com"/>
-    <hyperlink ref="E37" r:id="rId23" display="bp04@gmail.com"/>
-    <hyperlink ref="E38" r:id="rId23" display="bp05@gmail.com"/>
-    <hyperlink ref="E39" r:id="rId23" display="bp06@gmail.com"/>
-    <hyperlink ref="E31" r:id="rId24" display="supervisor01@gmail.com"/>
-    <hyperlink ref="E32" r:id="rId24" display="supervisor02@gmail.com"/>
-    <hyperlink ref="E33" r:id="rId24" display="supervisor03@gmail.com"/>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E12" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E13" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E15" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E16" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E17" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E18" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E23" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E24" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E25" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E26" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E27" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E28" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E29" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E30" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E34" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E35" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="E36" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E37" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="E38" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E39" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="E31" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E32" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E33" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E40" r:id="rId32" xr:uid="{BAB34717-CC32-4516-83A7-A20984FD6C5F}"/>
+    <hyperlink ref="E41:E42" r:id="rId33" display="manager01@gmail.com" xr:uid="{ED52E692-A723-474E-80AE-EBE7FCF5334E}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/public/download/sample/Users.xlsx
+++ b/public/download/sample/Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Installed Software\xampp\htdocs\enstudio\public\download\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AC3D28-2971-4CE5-B60F-1AE5F2D2D18C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952550EF-5C13-4CF8-95EA-204CB1EDFFBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,9 +381,6 @@
     <t>titumiah</t>
   </si>
   <si>
-    <t>01900000027</t>
-  </si>
-  <si>
     <t>titumiah@gmail.com</t>
   </si>
   <si>
@@ -556,13 +553,16 @@
   </si>
   <si>
     <t>manager</t>
+  </si>
+  <si>
+    <t>01900000039</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -583,6 +583,12 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -905,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1553,13 +1559,13 @@
         <v>116</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="G28" s="2">
         <v>32133213</v>
@@ -1570,19 +1576,19 @@
         <v>49</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="D29" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G29" s="2">
         <v>32133213</v>
@@ -1593,19 +1599,19 @@
         <v>78</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="D30" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="F30" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G30" s="2">
         <v>32133213</v>
@@ -1616,19 +1622,19 @@
         <v>7</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="D31" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G31" s="2">
         <v>32133213</v>
@@ -1639,19 +1645,19 @@
         <v>49</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="D32" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G32" s="2">
         <v>32133213</v>
@@ -1662,19 +1668,19 @@
         <v>78</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="D33" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="F33" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G33" s="2">
         <v>32133213</v>
@@ -1685,19 +1691,19 @@
         <v>7</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="D34" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="G34" s="2">
         <v>32133213</v>
@@ -1708,19 +1714,19 @@
         <v>7</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="D35" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="F35" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G35" s="2">
         <v>32133213</v>
@@ -1731,19 +1737,19 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D36" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="F36" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G36" s="2">
         <v>32133213</v>
@@ -1754,19 +1760,19 @@
         <v>49</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="D37" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="F37" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G37" s="2">
         <v>32133213</v>
@@ -1777,19 +1783,19 @@
         <v>78</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="D38" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="F38" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G38" s="2">
         <v>32133213</v>
@@ -1800,19 +1806,19 @@
         <v>78</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="D39" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>164</v>
-      </c>
       <c r="F39" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G39" s="2">
         <v>32133213</v>
@@ -1823,19 +1829,19 @@
         <v>7</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E40" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="G40" s="2">
         <v>32133213</v>
@@ -1846,19 +1852,19 @@
         <v>49</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E41" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="G41" s="2">
         <v>32133213</v>
@@ -1869,25 +1875,26 @@
         <v>78</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D42" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="G42" s="2">
         <v>32133213</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="E6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>

--- a/public/download/sample/Users.xlsx
+++ b/public/download/sample/Users.xlsx
@@ -1,34 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Installed Software\xampp\htdocs\enstudio\public\download\sample\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952550EF-5C13-4CF8-95EA-204CB1EDFFBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="10200" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="191">
   <si>
     <t>DD Code</t>
   </si>
@@ -381,6 +367,9 @@
     <t>titumiah</t>
   </si>
   <si>
+    <t>01900000028</t>
+  </si>
+  <si>
     <t>titumiah@gmail.com</t>
   </si>
   <si>
@@ -393,7 +382,7 @@
     <t>ridoymiah</t>
   </si>
   <si>
-    <t>01900000028</t>
+    <t>01900000029</t>
   </si>
   <si>
     <t>ridoymiah@gmail.com</t>
@@ -405,7 +394,7 @@
     <t>ruhulamin</t>
   </si>
   <si>
-    <t>01900000029</t>
+    <t>01900000030</t>
   </si>
   <si>
     <t>ruhulamin@gmail.com</t>
@@ -417,7 +406,7 @@
     <t>supervisor01</t>
   </si>
   <si>
-    <t>01900000030</t>
+    <t>01900000031</t>
   </si>
   <si>
     <t>supervisor01@gmail.com</t>
@@ -429,7 +418,7 @@
     <t>supervisor02</t>
   </si>
   <si>
-    <t>01900000031</t>
+    <t>01900000032</t>
   </si>
   <si>
     <t>supervisor02@gmail.com</t>
@@ -441,19 +430,16 @@
     <t>supervisor03</t>
   </si>
   <si>
-    <t>01900000032</t>
+    <t>01900000033</t>
   </si>
   <si>
     <t>supervisor03@gmail.com</t>
   </si>
   <si>
-    <t>BP 01</t>
-  </si>
-  <si>
-    <t>bp01</t>
-  </si>
-  <si>
-    <t>01900000033</t>
+    <t>Faruk Hasan</t>
+  </si>
+  <si>
+    <t>faruk</t>
   </si>
   <si>
     <t>bp01@gmail.com</t>
@@ -462,107 +448,158 @@
     <t>bp</t>
   </si>
   <si>
-    <t>BP 02</t>
-  </si>
-  <si>
-    <t>bp02</t>
-  </si>
-  <si>
-    <t>01900000034</t>
+    <t>Sadekin Islam</t>
+  </si>
+  <si>
+    <t>sadekin</t>
   </si>
   <si>
     <t>bp02@gmail.com</t>
   </si>
   <si>
-    <t>BP 03</t>
-  </si>
-  <si>
-    <t>bp03</t>
-  </si>
-  <si>
-    <t>01900000035</t>
+    <t>Nayeem Miah</t>
+  </si>
+  <si>
+    <t>nayeem</t>
   </si>
   <si>
     <t>bp03@gmail.com</t>
   </si>
   <si>
-    <t>BP 04</t>
-  </si>
-  <si>
-    <t>bp04</t>
-  </si>
-  <si>
-    <t>01900000036</t>
+    <t>Muhammad Sujon Khan</t>
+  </si>
+  <si>
+    <t>sujon</t>
   </si>
   <si>
     <t>bp04@gmail.com</t>
   </si>
   <si>
-    <t>BP 05</t>
-  </si>
-  <si>
-    <t>bp05</t>
-  </si>
-  <si>
-    <t>01900000037</t>
+    <t>Md. Sizal Miah</t>
+  </si>
+  <si>
+    <t>sizal</t>
   </si>
   <si>
     <t>bp05@gmail.com</t>
   </si>
   <si>
-    <t>BP 06</t>
-  </si>
-  <si>
-    <t>bp06</t>
-  </si>
-  <si>
-    <t>01900000038</t>
+    <t>Monirul Islam Panna</t>
+  </si>
+  <si>
+    <t>panna</t>
   </si>
   <si>
     <t>bp06@gmail.com</t>
   </si>
   <si>
+    <t>Monayam</t>
+  </si>
+  <si>
+    <t>monayan</t>
+  </si>
+  <si>
+    <t>bp07@gmail.com</t>
+  </si>
+  <si>
+    <t>Maruf Hasan Arnob</t>
+  </si>
+  <si>
+    <t>arnob</t>
+  </si>
+  <si>
+    <t>bp08@gmail.com</t>
+  </si>
+  <si>
+    <t>Md. Deloar Hossain</t>
+  </si>
+  <si>
+    <t>deloar</t>
+  </si>
+  <si>
+    <t>bp09@gmail.com</t>
+  </si>
+  <si>
+    <t>Mamun Miah</t>
+  </si>
+  <si>
+    <t>mamun</t>
+  </si>
+  <si>
+    <t>bp10@gmail.com</t>
+  </si>
+  <si>
+    <t>Abul Bashar</t>
+  </si>
+  <si>
+    <t>bashar</t>
+  </si>
+  <si>
+    <t>bp11@gmail.com</t>
+  </si>
+  <si>
+    <t>Md. Mosharaf Hossain</t>
+  </si>
+  <si>
+    <t>mosharaf</t>
+  </si>
+  <si>
+    <t>bp12@gmail.com</t>
+  </si>
+  <si>
+    <t>Ripon Miah</t>
+  </si>
+  <si>
+    <t>ripon</t>
+  </si>
+  <si>
+    <t>bp13@gmail.com</t>
+  </si>
+  <si>
     <t>Khasruzzaman</t>
   </si>
   <si>
+    <t>khasru</t>
+  </si>
+  <si>
+    <t>01918537111</t>
+  </si>
+  <si>
+    <t>manager01@gmail.com</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
     <t>Rasel Mia</t>
   </si>
   <si>
+    <t>rasel</t>
+  </si>
+  <si>
+    <t>01918580928</t>
+  </si>
+  <si>
     <t>Osman Goni</t>
   </si>
   <si>
-    <t>khasru</t>
-  </si>
-  <si>
-    <t>rasel</t>
-  </si>
-  <si>
     <t>osman</t>
   </si>
   <si>
-    <t>01918537111</t>
-  </si>
-  <si>
-    <t>01918580928</t>
-  </si>
-  <si>
     <t>01976466262</t>
-  </si>
-  <si>
-    <t>manager01@gmail.com</t>
-  </si>
-  <si>
-    <t>manager</t>
-  </si>
-  <si>
-    <t>01900000039</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -583,24 +620,341 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -608,16 +962,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -627,25 +1220,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -903,31 +1539,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="E31" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="35.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.2857142857143" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.5714285714286" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.1428571428571" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.8571428571429" style="2" customWidth="1"/>
+    <col min="5" max="5" width="35.5714285714286" style="2" customWidth="1"/>
     <col min="6" max="6" width="11" style="2" customWidth="1"/>
     <col min="7" max="7" width="10" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="8" max="16384" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1559,13 +2195,13 @@
         <v>116</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G28" s="2">
         <v>32133213</v>
@@ -1576,19 +2212,19 @@
         <v>49</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="G29" s="2">
         <v>32133213</v>
@@ -1599,19 +2235,19 @@
         <v>78</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G30" s="2">
         <v>32133213</v>
@@ -1622,19 +2258,19 @@
         <v>7</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G31" s="2">
         <v>32133213</v>
@@ -1645,19 +2281,19 @@
         <v>49</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G32" s="2">
         <v>32133213</v>
@@ -1668,19 +2304,19 @@
         <v>78</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G33" s="2">
         <v>32133213</v>
@@ -1691,13 +2327,13 @@
         <v>7</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1999969197</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>142</v>
@@ -1719,11 +2355,11 @@
       <c r="C35" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>150</v>
+      <c r="D35" s="2">
+        <v>1999092584</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>143</v>
@@ -1734,19 +2370,19 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2">
+        <v>1999969193</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>143</v>
@@ -1757,19 +2393,19 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1999969196</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>143</v>
@@ -1780,19 +2416,19 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="2" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>162</v>
+        <v>154</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1999968838</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>143</v>
@@ -1803,19 +2439,19 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="2" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>175</v>
+        <v>157</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1999969198</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>143</v>
@@ -1826,22 +2462,22 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>170</v>
+        <v>160</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1999968844</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="G40" s="2">
         <v>32133213</v>
@@ -1852,19 +2488,19 @@
         <v>49</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1999968907</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="G41" s="2">
         <v>32133213</v>
@@ -1875,61 +2511,229 @@
         <v>78</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2">
+        <v>1999968890</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G42" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D43" s="2">
+        <v>1999969188</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G43" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="D44" s="2">
+        <v>1999091313</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F44" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G44" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G42" s="2">
+      <c r="C45" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1999090915</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G45" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1999968899</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G46" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G47" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G48" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G49" s="2">
         <v>32133213</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E12" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E13" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E15" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E16" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E17" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E18" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="E23" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E24" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="E25" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E26" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E27" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E28" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="E29" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E30" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="E34" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="E35" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="E36" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="E37" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="E38" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="E39" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="E31" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="E32" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="E33" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="E40" r:id="rId32" xr:uid="{BAB34717-CC32-4516-83A7-A20984FD6C5F}"/>
-    <hyperlink ref="E41:E42" r:id="rId33" display="manager01@gmail.com" xr:uid="{ED52E692-A723-474E-80AE-EBE7FCF5334E}"/>
+    <hyperlink ref="E5" r:id="rId1" display="md.golammostufa@gmail.com"/>
+    <hyperlink ref="E6" r:id="rId2" display="nazmulahmed@gmail.com"/>
+    <hyperlink ref="E8" r:id="rId3" display="md.anikhasan@gmail.com"/>
+    <hyperlink ref="E9" r:id="rId4" display="md.siyamhossain@gmail.com"/>
+    <hyperlink ref="E10" r:id="rId5" display="habiburrahman@gmail.com"/>
+    <hyperlink ref="E12" r:id="rId6" display="rakibmia@gmail.com"/>
+    <hyperlink ref="E13" r:id="rId7" display="abdullahalalam@gmail.com"/>
+    <hyperlink ref="E15" r:id="rId8" display="md.jubayedmia@gmail.com"/>
+    <hyperlink ref="E16" r:id="rId9" display="md.monirhossen@gmail.com"/>
+    <hyperlink ref="E17" r:id="rId10" display="md.shahinmia@gmail.com"/>
+    <hyperlink ref="E18" r:id="rId11" display="ashiqurrahman@gmail.com"/>
+    <hyperlink ref="E19" r:id="rId12" display="safiqulislam@gmail.com"/>
+    <hyperlink ref="E21" r:id="rId13" display="md.bayazid@gmail.com"/>
+    <hyperlink ref="E22" r:id="rId14" display="saikoutzzamanraja@gmail.com"/>
+    <hyperlink ref="E23" r:id="rId15" display="md.thouhulamin@gmail.com"/>
+    <hyperlink ref="E24" r:id="rId16" display="monayamkhan@gmail.com"/>
+    <hyperlink ref="E25" r:id="rId17" display="mohammdabulhossain@gmail.com"/>
+    <hyperlink ref="E26" r:id="rId18" display="hridoymia@gmail.com"/>
+    <hyperlink ref="E27" r:id="rId19" display="md.hridoymia@gmail.com"/>
+    <hyperlink ref="E28" r:id="rId20" display="titumiah@gmail.com"/>
+    <hyperlink ref="E29" r:id="rId21" display="ridoymiah@gmail.com"/>
+    <hyperlink ref="E30" r:id="rId22" display="ruhulamin@gmail.com"/>
+    <hyperlink ref="E34" r:id="rId23" display="bp01@gmail.com"/>
+    <hyperlink ref="E35" r:id="rId23" display="bp02@gmail.com"/>
+    <hyperlink ref="E36" r:id="rId23" display="bp03@gmail.com"/>
+    <hyperlink ref="E37" r:id="rId23" display="bp04@gmail.com"/>
+    <hyperlink ref="E38" r:id="rId23" display="bp05@gmail.com"/>
+    <hyperlink ref="E39" r:id="rId23" display="bp06@gmail.com"/>
+    <hyperlink ref="E31" r:id="rId24" display="supervisor01@gmail.com"/>
+    <hyperlink ref="E32" r:id="rId24" display="supervisor02@gmail.com"/>
+    <hyperlink ref="E33" r:id="rId24" display="supervisor03@gmail.com"/>
+    <hyperlink ref="E47" r:id="rId25" display="manager01@gmail.com"/>
+    <hyperlink ref="E48:E49" r:id="rId25" display="manager01@gmail.com"/>
+    <hyperlink ref="E40" r:id="rId23" display="bp07@gmail.com"/>
+    <hyperlink ref="E41" r:id="rId23" display="bp08@gmail.com"/>
+    <hyperlink ref="E42" r:id="rId23" display="bp09@gmail.com"/>
+    <hyperlink ref="E43" r:id="rId23" display="bp10@gmail.com"/>
+    <hyperlink ref="E44" r:id="rId23" display="bp11@gmail.com"/>
+    <hyperlink ref="E45" r:id="rId23" display="bp12@gmail.com"/>
+    <hyperlink ref="E46" r:id="rId23" display="bp13@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/public/download/sample/Users.xlsx
+++ b/public/download/sample/Users.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10200" windowHeight="7530"/>
+    <workbookView windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="223">
   <si>
     <t>DD Code</t>
   </si>
@@ -442,6 +442,9 @@
     <t>faruk</t>
   </si>
   <si>
+    <t>01999969197</t>
+  </si>
+  <si>
     <t>bp01@gmail.com</t>
   </si>
   <si>
@@ -454,6 +457,9 @@
     <t>sadekin</t>
   </si>
   <si>
+    <t>01999092584</t>
+  </si>
+  <si>
     <t>bp02@gmail.com</t>
   </si>
   <si>
@@ -463,6 +469,9 @@
     <t>nayeem</t>
   </si>
   <si>
+    <t>01999969193</t>
+  </si>
+  <si>
     <t>bp03@gmail.com</t>
   </si>
   <si>
@@ -472,6 +481,9 @@
     <t>sujon</t>
   </si>
   <si>
+    <t>01999969196</t>
+  </si>
+  <si>
     <t>bp04@gmail.com</t>
   </si>
   <si>
@@ -481,6 +493,9 @@
     <t>sizal</t>
   </si>
   <si>
+    <t>01999968838</t>
+  </si>
+  <si>
     <t>bp05@gmail.com</t>
   </si>
   <si>
@@ -490,6 +505,9 @@
     <t>panna</t>
   </si>
   <si>
+    <t>01999969198</t>
+  </si>
+  <si>
     <t>bp06@gmail.com</t>
   </si>
   <si>
@@ -499,6 +517,9 @@
     <t>monayan</t>
   </si>
   <si>
+    <t>01999968844</t>
+  </si>
+  <si>
     <t>bp07@gmail.com</t>
   </si>
   <si>
@@ -508,6 +529,9 @@
     <t>arnob</t>
   </si>
   <si>
+    <t>01999968907</t>
+  </si>
+  <si>
     <t>bp08@gmail.com</t>
   </si>
   <si>
@@ -517,6 +541,9 @@
     <t>deloar</t>
   </si>
   <si>
+    <t>01999968890</t>
+  </si>
+  <si>
     <t>bp09@gmail.com</t>
   </si>
   <si>
@@ -526,6 +553,9 @@
     <t>mamun</t>
   </si>
   <si>
+    <t>01999969188</t>
+  </si>
+  <si>
     <t>bp10@gmail.com</t>
   </si>
   <si>
@@ -535,6 +565,9 @@
     <t>bashar</t>
   </si>
   <si>
+    <t>01999091313</t>
+  </si>
+  <si>
     <t>bp11@gmail.com</t>
   </si>
   <si>
@@ -544,6 +577,9 @@
     <t>mosharaf</t>
   </si>
   <si>
+    <t>01999090915</t>
+  </si>
+  <si>
     <t>bp12@gmail.com</t>
   </si>
   <si>
@@ -553,6 +589,9 @@
     <t>ripon</t>
   </si>
   <si>
+    <t>01999968899</t>
+  </si>
+  <si>
     <t>bp13@gmail.com</t>
   </si>
   <si>
@@ -580,6 +619,9 @@
     <t>01918580928</t>
   </si>
   <si>
+    <t>manager02@gmail.com</t>
+  </si>
+  <si>
     <t>Osman Goni</t>
   </si>
   <si>
@@ -587,6 +629,60 @@
   </si>
   <si>
     <t>01976466262</t>
+  </si>
+  <si>
+    <t>manager03@gmail.com</t>
+  </si>
+  <si>
+    <t>Sher Ali</t>
+  </si>
+  <si>
+    <t>sherali</t>
+  </si>
+  <si>
+    <t>01715969790</t>
+  </si>
+  <si>
+    <t>sherali@gmail.com</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>Anowar Hossain</t>
+  </si>
+  <si>
+    <t>anowar</t>
+  </si>
+  <si>
+    <t>01912345399</t>
+  </si>
+  <si>
+    <t>anowar@gmail.com</t>
+  </si>
+  <si>
+    <t>Mr. A. R. Masum</t>
+  </si>
+  <si>
+    <t>masum</t>
+  </si>
+  <si>
+    <t>01915162211</t>
+  </si>
+  <si>
+    <t>masum@gmail.com</t>
+  </si>
+  <si>
+    <t>Toriqul islam</t>
+  </si>
+  <si>
+    <t>toriqul</t>
+  </si>
+  <si>
+    <t>01912317878</t>
+  </si>
+  <si>
+    <t>toriqul@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1545,10 +1641,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E31" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1560,7 +1656,8 @@
     <col min="5" max="5" width="35.5714285714286" style="2" customWidth="1"/>
     <col min="6" max="6" width="11" style="2" customWidth="1"/>
     <col min="7" max="7" width="10" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.14285714285714" style="2"/>
+    <col min="8" max="8" width="12.8571428571429" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
@@ -2332,14 +2429,14 @@
       <c r="C34" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D34" s="2">
-        <v>1999969197</v>
+      <c r="D34" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G34" s="2">
         <v>32133213</v>
@@ -2350,19 +2447,19 @@
         <v>7</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D35" s="2">
-        <v>1999092584</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="G35" s="2">
         <v>32133213</v>
@@ -2373,19 +2470,19 @@
         <v>7</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D36" s="2">
-        <v>1999969193</v>
+        <v>150</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G36" s="2">
         <v>32133213</v>
@@ -2396,19 +2493,19 @@
         <v>7</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D37" s="2">
-        <v>1999969196</v>
+        <v>154</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G37" s="2">
         <v>32133213</v>
@@ -2419,19 +2516,19 @@
         <v>7</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D38" s="2">
-        <v>1999968838</v>
+        <v>158</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G38" s="2">
         <v>32133213</v>
@@ -2442,19 +2539,19 @@
         <v>49</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1999969198</v>
+        <v>162</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G39" s="2">
         <v>32133213</v>
@@ -2465,19 +2562,19 @@
         <v>49</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D40" s="2">
-        <v>1999968844</v>
+        <v>166</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G40" s="2">
         <v>32133213</v>
@@ -2488,19 +2585,19 @@
         <v>49</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1999968907</v>
+        <v>170</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G41" s="2">
         <v>32133213</v>
@@ -2511,19 +2608,19 @@
         <v>78</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D42" s="2">
-        <v>1999968890</v>
+        <v>174</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G42" s="2">
         <v>32133213</v>
@@ -2534,19 +2631,19 @@
         <v>78</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D43" s="2">
-        <v>1999969188</v>
+        <v>178</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G43" s="2">
         <v>32133213</v>
@@ -2557,19 +2654,19 @@
         <v>78</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D44" s="2">
-        <v>1999091313</v>
+        <v>182</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G44" s="2">
         <v>32133213</v>
@@ -2580,19 +2677,19 @@
         <v>78</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D45" s="2">
-        <v>1999090915</v>
+        <v>186</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G45" s="2">
         <v>32133213</v>
@@ -2603,19 +2700,19 @@
         <v>49</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D46" s="2">
-        <v>1999968899</v>
+        <v>190</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G46" s="2">
         <v>32133213</v>
@@ -2626,19 +2723,19 @@
         <v>7</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="G47" s="2">
         <v>32133213</v>
@@ -2649,19 +2746,19 @@
         <v>49</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="G48" s="2">
         <v>32133213</v>
@@ -2672,21 +2769,113 @@
         <v>78</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="G49" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G50" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G51" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G52" s="2">
+        <v>32133213</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G53" s="2">
         <v>32133213</v>
       </c>
     </row>
@@ -2724,7 +2913,7 @@
     <hyperlink ref="E32" r:id="rId24" display="supervisor02@gmail.com"/>
     <hyperlink ref="E33" r:id="rId24" display="supervisor03@gmail.com"/>
     <hyperlink ref="E47" r:id="rId25" display="manager01@gmail.com"/>
-    <hyperlink ref="E48:E49" r:id="rId25" display="manager01@gmail.com"/>
+    <hyperlink ref="E48:E49" r:id="rId25" display="manager02@gmail.com"/>
     <hyperlink ref="E40" r:id="rId23" display="bp07@gmail.com"/>
     <hyperlink ref="E41" r:id="rId23" display="bp08@gmail.com"/>
     <hyperlink ref="E42" r:id="rId23" display="bp09@gmail.com"/>
@@ -2732,6 +2921,12 @@
     <hyperlink ref="E44" r:id="rId23" display="bp11@gmail.com"/>
     <hyperlink ref="E45" r:id="rId23" display="bp12@gmail.com"/>
     <hyperlink ref="E46" r:id="rId23" display="bp13@gmail.com"/>
+    <hyperlink ref="E50" r:id="rId26" display="sherali@gmail.com"/>
+    <hyperlink ref="E51" r:id="rId27" display="anowar@gmail.com"/>
+    <hyperlink ref="E52" r:id="rId28" display="masum@gmail.com" tooltip="mailto:masum@gmail.com"/>
+    <hyperlink ref="E53" r:id="rId29" display="toriqul@gmail.com"/>
+    <hyperlink ref="E48" r:id="rId25" display="manager02@gmail.com"/>
+    <hyperlink ref="E49" r:id="rId25" display="manager03@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
